--- a/MutualFund_Database.xlsx
+++ b/MutualFund_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +576,106 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MutualFund_Database.xlsx
+++ b/MutualFund_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Motilal Oswal Nasdaq 100 FoF</t>
+  </si>
+  <si>
+    <t>0P0001NI59.BO</t>
+  </si>
+  <si>
+    <t>Edelweiss Nifty 100 Quality 30</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +682,106 @@
         <v>500</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45691</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45691</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45691</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45691</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45693</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MutualFund_Database.xlsx
+++ b/MutualFund_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,6 +782,106 @@
         <v>500</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45719</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45719</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45719</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45719</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45719</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MutualFund_Database.xlsx
+++ b/MutualFund_Database.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3653948-A0F8-4A73-9FF4-35D5711E0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
@@ -424,25 +425,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -462,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -482,7 +483,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -502,7 +503,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -522,7 +523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -542,7 +543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -562,7 +563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -582,7 +583,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -602,7 +603,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -622,7 +623,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -642,7 +643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -662,7 +663,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -682,7 +683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -702,7 +703,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -722,7 +723,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -742,7 +743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -762,7 +763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -782,7 +783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -802,7 +803,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -822,7 +823,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -842,7 +843,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -862,7 +863,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -879,6 +880,106 @@
         <v>9</v>
       </c>
       <c r="F22" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5">
         <v>500</v>
       </c>
     </row>
@@ -886,4 +987,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{bac4e201-4c2d-490c-b188-5575fa2c697c}" enabled="1" method="Standard" siteId="{8c4858b5-f020-483a-b7ef-71ded6e81767}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>